--- a/Assets/StreamingAssets/Excels/WeaponData.xlsx
+++ b/Assets/StreamingAssets/Excels/WeaponData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\TestSteamVR\Assets\StreamingAssets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC0EC59-F4A0-4BC1-B152-9B2F1BB761FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E599335-4A00-4C9F-8C2C-76B75608DC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34215" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,42 +59,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fireRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletPrePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flashPrePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapons/Bullets/Bullet01</t>
+  </si>
+  <si>
+    <t>Weapons/Bullets/MuzzleFlash01</t>
+  </si>
+  <si>
+    <t>Weapons/Gun/SciFiRifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioPrePath</t>
+  </si>
+  <si>
+    <t>Audios/AssaultRifleSingleShot</t>
+  </si>
+  <si>
+    <t>maxAmmo</t>
+  </si>
+  <si>
     <t>recoil</t>
-  </si>
-  <si>
-    <t>fireRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletPrePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flashPrePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapons/Bullets/Bullet01</t>
-  </si>
-  <si>
-    <t>Weapons/Bullets/MuzzleFlash01</t>
-  </si>
-  <si>
-    <t>Weapons/Gun/SciFiRifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audioPrePath</t>
-  </si>
-  <si>
-    <t>Audios/AssaultRifleSingleShot</t>
-  </si>
-  <si>
-    <t>maxAmmo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -443,7 +444,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,28 +469,28 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="57" x14ac:dyDescent="0.2">
@@ -500,16 +501,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -524,13 +525,13 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excels/WeaponData.xlsx
+++ b/Assets/StreamingAssets/Excels/WeaponData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85BD9B-CDD3-4305-B25C-1A4D44AF84B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA9C38-6FA6-465A-982E-059E5B3C1101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="495" windowWidth="21930" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>Weapons/Gun/MP-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapons/Gun/SciFiRifle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,6 +542,47 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Excels/WeaponData.xlsx
+++ b/Assets/StreamingAssets/Excels/WeaponData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA9C38-6FA6-465A-982E-059E5B3C1101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C531EB0-43DB-4AFB-9501-8F0D8B164F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="675" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,7 +518,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>

--- a/Assets/StreamingAssets/Excels/WeaponData.xlsx
+++ b/Assets/StreamingAssets/Excels/WeaponData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C531EB0-43DB-4AFB-9501-8F0D8B164F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A20222-9D91-41BD-A17B-38882EBE3553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="675" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="930" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,17 @@
   <si>
     <t>Weapons/Gun/SciFiRifle</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapons/Gun/M4A1 Sopmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4A1 Sopmod</t>
   </si>
 </sst>
 </file>
@@ -449,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,34 +478,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="57" x14ac:dyDescent="0.2">
@@ -506,13 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
@@ -533,13 +540,13 @@
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="57" x14ac:dyDescent="0.2">
@@ -547,13 +554,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -574,13 +581,54 @@
         <v>1000</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
